--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_33.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/30/Output_30_33.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>63031.57433486611</v>
+        <v>12385706.02238282</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>63031.57433486611</v>
+        <v>12385706.02238282</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>27701.1559042441</v>
+        <v>3719076.043687761</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>27701.1559042441</v>
+        <v>3719076.043687761</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1419733692.487518</v>
+        <v>57123694.47286037</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>12799.49003171765</v>
+        <v>1448381.519337872</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>23786.96514846795</v>
+        <v>2612599.970123236</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>34774.44026521824</v>
+        <v>3776818.420908601</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>46568.03089182281</v>
+        <v>4769282.673135616</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>57836.71893164388</v>
+        <v>5958679.187933814</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>68893.1327300124</v>
+        <v>7116132.022753171</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>79949.54652838089</v>
+        <v>8273584.857572523</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>91005.96032674939</v>
+        <v>9431037.692391878</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>102578.4141662669</v>
+        <v>10404869.43813583</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>114157.8192327806</v>
+        <v>11456673.68975865</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>125674.9120156922</v>
+        <v>12500286.56792312</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>137192.0047986037</v>
+        <v>13543899.44608762</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>148709.0975815151</v>
+        <v>14587512.32425211</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>160410.0137317874</v>
+        <v>15589255.15497523</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>173732.6355319933</v>
+        <v>16282098.44726954</v>
       </c>
     </row>
   </sheetData>
